--- a/biology/Botanique/Echinodorus_aschersonianus/Echinodorus_aschersonianus.xlsx
+++ b/biology/Botanique/Echinodorus_aschersonianus/Echinodorus_aschersonianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinodorus aschersonianus ou Epée d'eau d'Ascherson est une plante aquatique tropicale de la famille des Echinodorus. Karel Rataj la rebaptisée Echinodorus aschersonianus var. nulliglandulosus.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente du sud du Brésil jusqu'en Argentine.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ne dépasse pas les 15 cm.
 </t>
@@ -573,7 +589,9 @@
           <t>Maintenance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Très gourmande en lumière, celle-ci sera très intense. Les caractéristiques de l'eau n'ont pas d'importance. La température sera de 22 à 26 °C.
 </t>
